--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_18_37.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_18_37.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>60115.30897132191</v>
+        <v>11962946.48529305</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>60115.30897132191</v>
+        <v>11962946.48529305</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4978.998590893419</v>
+        <v>673498.3814333726</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4978.998590893419</v>
+        <v>673498.3814333726</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1266007547.627089</v>
+        <v>52001585.83709666</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10753.7896231671</v>
+        <v>1199714.43459074</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20463.13393371742</v>
+        <v>2237440.991686338</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30172.47824426773</v>
+        <v>3275167.548781938</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>39968.00536043771</v>
+        <v>4318635.808570545</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>49740.72520388043</v>
+        <v>5357565.421086425</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>59513.44504732313</v>
+        <v>6396495.033602305</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>69286.16489076582</v>
+        <v>7435424.64611818</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>79058.88473420854</v>
+        <v>8474354.258634055</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>88744.66807217425</v>
+        <v>9507176.775724027</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>98453.97141013993</v>
+        <v>10544679.772814</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>108163.2747481056</v>
+        <v>11582182.76990398</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>117773.3915033115</v>
+        <v>12614775.36500686</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>127406.3155312447</v>
+        <v>13651906.60738247</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>137732.6820093172</v>
+        <v>14585875.20656023</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>148059.0484873896</v>
+        <v>15519843.805738</v>
       </c>
     </row>
   </sheetData>
@@ -27040,10 +27040,10 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>391</v>
@@ -27055,16 +27055,16 @@
         <v>5</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>400</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L2" t="n">
         <v>5</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,19 +27144,19 @@
         <v>360</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>32</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
